--- a/Data/Regression/news_index_senti_lex_q.xlsx
+++ b/Data/Regression/news_index_senti_lex_q.xlsx
@@ -456,7 +456,7 @@
         <v>33239</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.1334982460809845</v>
+        <v>-0.1534924585808697</v>
       </c>
     </row>
     <row r="3">
@@ -464,7 +464,7 @@
         <v>33329</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.1299624090645965</v>
+        <v>-0.1357298757910612</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         <v>33420</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.133279746765813</v>
+        <v>-0.140145757082721</v>
       </c>
     </row>
     <row r="5">
@@ -480,7 +480,7 @@
         <v>33512</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.1275609140257735</v>
+        <v>-0.1402596056160162</v>
       </c>
     </row>
     <row r="6">
@@ -488,7 +488,7 @@
         <v>33604</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.1282948324778867</v>
+        <v>-0.1440740577172349</v>
       </c>
     </row>
     <row r="7">
@@ -496,7 +496,7 @@
         <v>33695</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.1263948705267535</v>
+        <v>-0.1416029776544062</v>
       </c>
     </row>
     <row r="8">
@@ -504,7 +504,7 @@
         <v>33786</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.1387618044300564</v>
+        <v>-0.1462361503596796</v>
       </c>
     </row>
     <row r="9">
@@ -512,7 +512,7 @@
         <v>33878</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.1204135243707982</v>
+        <v>-0.1457702152041511</v>
       </c>
     </row>
     <row r="10">
@@ -520,7 +520,7 @@
         <v>33970</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.1256250454074659</v>
+        <v>-0.141227727192547</v>
       </c>
     </row>
     <row r="11">
@@ -528,7 +528,7 @@
         <v>34060</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.1398489205918249</v>
+        <v>-0.1570218051142842</v>
       </c>
     </row>
     <row r="12">
@@ -536,7 +536,7 @@
         <v>34151</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.1235870378419537</v>
+        <v>-0.1402572833029916</v>
       </c>
     </row>
     <row r="13">
@@ -544,7 +544,7 @@
         <v>34243</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.1082175520608344</v>
+        <v>-0.1475165579831482</v>
       </c>
     </row>
     <row r="14">
@@ -552,7 +552,7 @@
         <v>34335</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.1228223563871715</v>
+        <v>-0.133673565270316</v>
       </c>
     </row>
     <row r="15">
@@ -560,7 +560,7 @@
         <v>34425</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.1156029718735804</v>
+        <v>-0.1397927117436329</v>
       </c>
     </row>
     <row r="16">
@@ -568,7 +568,7 @@
         <v>34516</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.1148659046438496</v>
+        <v>-0.1372520166048013</v>
       </c>
     </row>
     <row r="17">
@@ -576,7 +576,7 @@
         <v>34608</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.104514398213494</v>
+        <v>-0.1310775235063493</v>
       </c>
     </row>
     <row r="18">
@@ -584,7 +584,7 @@
         <v>34700</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.1294214729155323</v>
+        <v>-0.137894150806412</v>
       </c>
     </row>
     <row r="19">
@@ -592,7 +592,7 @@
         <v>34790</v>
       </c>
       <c r="B19" t="n">
-        <v>-0.1244469419845283</v>
+        <v>-0.1314977898928067</v>
       </c>
     </row>
     <row r="20">
@@ -600,7 +600,7 @@
         <v>34881</v>
       </c>
       <c r="B20" t="n">
-        <v>-0.108859901130014</v>
+        <v>-0.1253431360118642</v>
       </c>
     </row>
     <row r="21">
@@ -608,7 +608,7 @@
         <v>34973</v>
       </c>
       <c r="B21" t="n">
-        <v>-0.1193624541740852</v>
+        <v>-0.138780185774935</v>
       </c>
     </row>
     <row r="22">
@@ -616,7 +616,7 @@
         <v>35065</v>
       </c>
       <c r="B22" t="n">
-        <v>-0.1144381499092982</v>
+        <v>-0.1247973184331817</v>
       </c>
     </row>
     <row r="23">
@@ -624,7 +624,7 @@
         <v>35156</v>
       </c>
       <c r="B23" t="n">
-        <v>-0.1253284297962817</v>
+        <v>-0.1439310306461487</v>
       </c>
     </row>
     <row r="24">
@@ -632,7 +632,7 @@
         <v>35247</v>
       </c>
       <c r="B24" t="n">
-        <v>-0.1079803318898173</v>
+        <v>-0.1319395161460816</v>
       </c>
     </row>
     <row r="25">
@@ -640,7 +640,7 @@
         <v>35339</v>
       </c>
       <c r="B25" t="n">
-        <v>-0.1121567467607728</v>
+        <v>-0.1431903843905059</v>
       </c>
     </row>
     <row r="26">
@@ -648,7 +648,7 @@
         <v>35431</v>
       </c>
       <c r="B26" t="n">
-        <v>-0.1243894518595785</v>
+        <v>-0.1291389766997261</v>
       </c>
     </row>
     <row r="27">
@@ -656,7 +656,7 @@
         <v>35521</v>
       </c>
       <c r="B27" t="n">
-        <v>-0.1066694992052772</v>
+        <v>-0.1333910058188453</v>
       </c>
     </row>
     <row r="28">
@@ -664,7 +664,7 @@
         <v>35612</v>
       </c>
       <c r="B28" t="n">
-        <v>-0.113902736983004</v>
+        <v>-0.1364773603662673</v>
       </c>
     </row>
     <row r="29">
@@ -672,7 +672,7 @@
         <v>35704</v>
       </c>
       <c r="B29" t="n">
-        <v>-0.1041477708704425</v>
+        <v>-0.1269953124791155</v>
       </c>
     </row>
     <row r="30">
@@ -680,7 +680,7 @@
         <v>35796</v>
       </c>
       <c r="B30" t="n">
-        <v>-0.1231448561980877</v>
+        <v>-0.1402151971133958</v>
       </c>
     </row>
     <row r="31">
@@ -688,7 +688,7 @@
         <v>35886</v>
       </c>
       <c r="B31" t="n">
-        <v>-0.1121070266184858</v>
+        <v>-0.1397209817664092</v>
       </c>
     </row>
     <row r="32">
@@ -696,7 +696,7 @@
         <v>35977</v>
       </c>
       <c r="B32" t="n">
-        <v>-0.1159633702100994</v>
+        <v>-0.1337208293417075</v>
       </c>
     </row>
     <row r="33">
@@ -704,7 +704,7 @@
         <v>36069</v>
       </c>
       <c r="B33" t="n">
-        <v>-0.1192650618528825</v>
+        <v>-0.1363599758519078</v>
       </c>
     </row>
     <row r="34">
@@ -712,7 +712,7 @@
         <v>36161</v>
       </c>
       <c r="B34" t="n">
-        <v>-0.1264092284174209</v>
+        <v>-0.1420307781954484</v>
       </c>
     </row>
     <row r="35">
@@ -720,7 +720,7 @@
         <v>36251</v>
       </c>
       <c r="B35" t="n">
-        <v>-0.106113578850339</v>
+        <v>-0.125378761407607</v>
       </c>
     </row>
     <row r="36">
@@ -728,7 +728,7 @@
         <v>36342</v>
       </c>
       <c r="B36" t="n">
-        <v>-0.1039500470539935</v>
+        <v>-0.123242957162204</v>
       </c>
     </row>
     <row r="37">
@@ -736,7 +736,7 @@
         <v>36434</v>
       </c>
       <c r="B37" t="n">
-        <v>-0.1167418683993576</v>
+        <v>-0.1221470675581579</v>
       </c>
     </row>
     <row r="38">
@@ -744,7 +744,7 @@
         <v>36526</v>
       </c>
       <c r="B38" t="n">
-        <v>-0.1158241878630537</v>
+        <v>-0.1237381235252662</v>
       </c>
     </row>
     <row r="39">
@@ -752,7 +752,7 @@
         <v>36617</v>
       </c>
       <c r="B39" t="n">
-        <v>-0.1191115958175627</v>
+        <v>-0.1307411573873652</v>
       </c>
     </row>
     <row r="40">
@@ -760,7 +760,7 @@
         <v>36708</v>
       </c>
       <c r="B40" t="n">
-        <v>-0.1314695405574128</v>
+        <v>-0.1280142670982445</v>
       </c>
     </row>
     <row r="41">
@@ -768,7 +768,7 @@
         <v>36800</v>
       </c>
       <c r="B41" t="n">
-        <v>-0.1214825146051171</v>
+        <v>-0.1256542724621025</v>
       </c>
     </row>
     <row r="42">
@@ -776,7 +776,7 @@
         <v>36892</v>
       </c>
       <c r="B42" t="n">
-        <v>-0.1135223353539098</v>
+        <v>-0.1520504765157774</v>
       </c>
     </row>
     <row r="43">
@@ -784,7 +784,7 @@
         <v>36982</v>
       </c>
       <c r="B43" t="n">
-        <v>-0.112172245165941</v>
+        <v>-0.1247337060519404</v>
       </c>
     </row>
     <row r="44">
@@ -792,7 +792,7 @@
         <v>37073</v>
       </c>
       <c r="B44" t="n">
-        <v>-0.1185463381588619</v>
+        <v>-0.1327738459480355</v>
       </c>
     </row>
     <row r="45">
@@ -800,7 +800,7 @@
         <v>37165</v>
       </c>
       <c r="B45" t="n">
-        <v>-0.1105831607583898</v>
+        <v>-0.1328705018143704</v>
       </c>
     </row>
     <row r="46">
@@ -808,7 +808,7 @@
         <v>37257</v>
       </c>
       <c r="B46" t="n">
-        <v>-0.1022118826816668</v>
+        <v>-0.1260668063683586</v>
       </c>
     </row>
     <row r="47">
@@ -816,7 +816,7 @@
         <v>37347</v>
       </c>
       <c r="B47" t="n">
-        <v>-0.103003573482577</v>
+        <v>-0.1240455665918242</v>
       </c>
     </row>
     <row r="48">
@@ -824,7 +824,7 @@
         <v>37438</v>
       </c>
       <c r="B48" t="n">
-        <v>-0.1103554203588535</v>
+        <v>-0.1175797756923278</v>
       </c>
     </row>
     <row r="49">
@@ -832,7 +832,7 @@
         <v>37530</v>
       </c>
       <c r="B49" t="n">
-        <v>-0.1056531233825062</v>
+        <v>-0.1301584042170622</v>
       </c>
     </row>
     <row r="50">
@@ -840,7 +840,7 @@
         <v>37622</v>
       </c>
       <c r="B50" t="n">
-        <v>-0.122900868986003</v>
+        <v>-0.1391546149010723</v>
       </c>
     </row>
     <row r="51">
@@ -848,7 +848,7 @@
         <v>37712</v>
       </c>
       <c r="B51" t="n">
-        <v>-0.1332679593163275</v>
+        <v>-0.1517706259365739</v>
       </c>
     </row>
     <row r="52">
@@ -856,7 +856,7 @@
         <v>37803</v>
       </c>
       <c r="B52" t="n">
-        <v>-0.1204220225341337</v>
+        <v>-0.1445442214905037</v>
       </c>
     </row>
     <row r="53">
@@ -864,7 +864,7 @@
         <v>37895</v>
       </c>
       <c r="B53" t="n">
-        <v>-0.1129979370811191</v>
+        <v>-0.1392876037804175</v>
       </c>
     </row>
     <row r="54">
@@ -872,7 +872,7 @@
         <v>37987</v>
       </c>
       <c r="B54" t="n">
-        <v>-0.1090387704298978</v>
+        <v>-0.1305003078515587</v>
       </c>
     </row>
     <row r="55">
@@ -880,7 +880,7 @@
         <v>38078</v>
       </c>
       <c r="B55" t="n">
-        <v>-0.1291294873751885</v>
+        <v>-0.147782523570266</v>
       </c>
     </row>
     <row r="56">
@@ -888,7 +888,7 @@
         <v>38169</v>
       </c>
       <c r="B56" t="n">
-        <v>-0.1199387583834851</v>
+        <v>-0.1413544794816261</v>
       </c>
     </row>
     <row r="57">
@@ -896,7 +896,7 @@
         <v>38261</v>
       </c>
       <c r="B57" t="n">
-        <v>-0.1206019925463564</v>
+        <v>-0.1445884542898249</v>
       </c>
     </row>
     <row r="58">
@@ -904,7 +904,7 @@
         <v>38353</v>
       </c>
       <c r="B58" t="n">
-        <v>-0.1275404004139713</v>
+        <v>-0.1410565128898982</v>
       </c>
     </row>
     <row r="59">
@@ -912,7 +912,7 @@
         <v>38443</v>
       </c>
       <c r="B59" t="n">
-        <v>-0.1342763275585888</v>
+        <v>-0.1334397499021595</v>
       </c>
     </row>
     <row r="60">
@@ -920,7 +920,7 @@
         <v>38534</v>
       </c>
       <c r="B60" t="n">
-        <v>-0.1146465738677856</v>
+        <v>-0.127467427333382</v>
       </c>
     </row>
     <row r="61">
@@ -928,7 +928,7 @@
         <v>38626</v>
       </c>
       <c r="B61" t="n">
-        <v>-0.1276958496754994</v>
+        <v>-0.1409430806084989</v>
       </c>
     </row>
     <row r="62">
@@ -936,7 +936,7 @@
         <v>38718</v>
       </c>
       <c r="B62" t="n">
-        <v>-0.1239930166379132</v>
+        <v>-0.1347382029652613</v>
       </c>
     </row>
     <row r="63">
@@ -944,7 +944,7 @@
         <v>38808</v>
       </c>
       <c r="B63" t="n">
-        <v>-0.1376767445468615</v>
+        <v>-0.1474989209631965</v>
       </c>
     </row>
     <row r="64">
@@ -952,7 +952,7 @@
         <v>38899</v>
       </c>
       <c r="B64" t="n">
-        <v>-0.1194636352355676</v>
+        <v>-0.1386585027942994</v>
       </c>
     </row>
     <row r="65">
@@ -960,7 +960,7 @@
         <v>38991</v>
       </c>
       <c r="B65" t="n">
-        <v>-0.1282600340721358</v>
+        <v>-0.1500678061758363</v>
       </c>
     </row>
     <row r="66">
@@ -968,7 +968,7 @@
         <v>39083</v>
       </c>
       <c r="B66" t="n">
-        <v>-0.1191436876952328</v>
+        <v>-0.1311989156929524</v>
       </c>
     </row>
     <row r="67">
@@ -976,7 +976,7 @@
         <v>39173</v>
       </c>
       <c r="B67" t="n">
-        <v>-0.1202158502136145</v>
+        <v>-0.146616874260868</v>
       </c>
     </row>
     <row r="68">
@@ -984,7 +984,7 @@
         <v>39264</v>
       </c>
       <c r="B68" t="n">
-        <v>-0.136836584547856</v>
+        <v>-0.1444936012105033</v>
       </c>
     </row>
     <row r="69">
@@ -992,7 +992,7 @@
         <v>39356</v>
       </c>
       <c r="B69" t="n">
-        <v>-0.130885172342745</v>
+        <v>-0.1446304851282281</v>
       </c>
     </row>
     <row r="70">
@@ -1000,7 +1000,7 @@
         <v>39448</v>
       </c>
       <c r="B70" t="n">
-        <v>-0.1459997405896095</v>
+        <v>-0.1525447533470215</v>
       </c>
     </row>
     <row r="71">
@@ -1008,7 +1008,7 @@
         <v>39539</v>
       </c>
       <c r="B71" t="n">
-        <v>-0.1425223237297399</v>
+        <v>-0.1481511702467859</v>
       </c>
     </row>
     <row r="72">
@@ -1016,7 +1016,7 @@
         <v>39630</v>
       </c>
       <c r="B72" t="n">
-        <v>-0.1381921130283565</v>
+        <v>-0.1557256119479111</v>
       </c>
     </row>
     <row r="73">
@@ -1024,7 +1024,7 @@
         <v>39722</v>
       </c>
       <c r="B73" t="n">
-        <v>-0.1182876575057502</v>
+        <v>-0.1437134708036366</v>
       </c>
     </row>
     <row r="74">
@@ -1032,7 +1032,7 @@
         <v>39814</v>
       </c>
       <c r="B74" t="n">
-        <v>-0.1144171965036922</v>
+        <v>-0.1326148529671805</v>
       </c>
     </row>
     <row r="75">
@@ -1040,7 +1040,7 @@
         <v>39904</v>
       </c>
       <c r="B75" t="n">
-        <v>-0.1130445025256062</v>
+        <v>-0.1399791186216012</v>
       </c>
     </row>
     <row r="76">
@@ -1048,7 +1048,7 @@
         <v>39995</v>
       </c>
       <c r="B76" t="n">
-        <v>-0.1126818022571789</v>
+        <v>-0.1406888616364504</v>
       </c>
     </row>
     <row r="77">
@@ -1056,7 +1056,7 @@
         <v>40087</v>
       </c>
       <c r="B77" t="n">
-        <v>-0.1231611629220234</v>
+        <v>-0.1534987912091829</v>
       </c>
     </row>
     <row r="78">
@@ -1064,7 +1064,7 @@
         <v>40179</v>
       </c>
       <c r="B78" t="n">
-        <v>-0.1297492746232204</v>
+        <v>-0.1659187791528303</v>
       </c>
     </row>
     <row r="79">
@@ -1072,7 +1072,7 @@
         <v>40269</v>
       </c>
       <c r="B79" t="n">
-        <v>-0.1272250311812611</v>
+        <v>-0.1638912973465088</v>
       </c>
     </row>
     <row r="80">
@@ -1080,7 +1080,7 @@
         <v>40360</v>
       </c>
       <c r="B80" t="n">
-        <v>-0.1275721292198575</v>
+        <v>-0.1566870005540464</v>
       </c>
     </row>
     <row r="81">
@@ -1088,7 +1088,7 @@
         <v>40452</v>
       </c>
       <c r="B81" t="n">
-        <v>-0.1243330281885038</v>
+        <v>-0.1435482697112134</v>
       </c>
     </row>
     <row r="82">
@@ -1096,7 +1096,7 @@
         <v>40544</v>
       </c>
       <c r="B82" t="n">
-        <v>-0.1339060572240679</v>
+        <v>-0.1460839210507728</v>
       </c>
     </row>
     <row r="83">
@@ -1104,7 +1104,7 @@
         <v>40634</v>
       </c>
       <c r="B83" t="n">
-        <v>-0.1301423882957389</v>
+        <v>-0.1500928988129352</v>
       </c>
     </row>
     <row r="84">
@@ -1112,7 +1112,7 @@
         <v>40725</v>
       </c>
       <c r="B84" t="n">
-        <v>-0.1149265528263001</v>
+        <v>-0.1479234976756752</v>
       </c>
     </row>
     <row r="85">
@@ -1120,7 +1120,7 @@
         <v>40817</v>
       </c>
       <c r="B85" t="n">
-        <v>-0.112750038629839</v>
+        <v>-0.1337073226996419</v>
       </c>
     </row>
     <row r="86">
@@ -1128,7 +1128,7 @@
         <v>40909</v>
       </c>
       <c r="B86" t="n">
-        <v>-0.1100096287607526</v>
+        <v>-0.138155946051722</v>
       </c>
     </row>
     <row r="87">
@@ -1136,7 +1136,7 @@
         <v>41000</v>
       </c>
       <c r="B87" t="n">
-        <v>-0.1175549047398649</v>
+        <v>-0.1467360310442286</v>
       </c>
     </row>
     <row r="88">
@@ -1144,7 +1144,7 @@
         <v>41091</v>
       </c>
       <c r="B88" t="n">
-        <v>-0.1135058461742412</v>
+        <v>-0.1453998014514609</v>
       </c>
     </row>
     <row r="89">
@@ -1152,7 +1152,7 @@
         <v>41183</v>
       </c>
       <c r="B89" t="n">
-        <v>-0.1088012760449043</v>
+        <v>-0.140030173662084</v>
       </c>
     </row>
     <row r="90">
@@ -1160,7 +1160,7 @@
         <v>41275</v>
       </c>
       <c r="B90" t="n">
-        <v>-0.1260340149832112</v>
+        <v>-0.1516147931026041</v>
       </c>
     </row>
     <row r="91">
@@ -1168,7 +1168,7 @@
         <v>41365</v>
       </c>
       <c r="B91" t="n">
-        <v>-0.1295011598423971</v>
+        <v>-0.1517485361057351</v>
       </c>
     </row>
     <row r="92">
@@ -1176,7 +1176,7 @@
         <v>41456</v>
       </c>
       <c r="B92" t="n">
-        <v>-0.1165805661605243</v>
+        <v>-0.1439565080717538</v>
       </c>
     </row>
     <row r="93">
@@ -1184,7 +1184,7 @@
         <v>41548</v>
       </c>
       <c r="B93" t="n">
-        <v>-0.1042244771060951</v>
+        <v>-0.129487795738757</v>
       </c>
     </row>
     <row r="94">
@@ -1192,7 +1192,7 @@
         <v>41640</v>
       </c>
       <c r="B94" t="n">
-        <v>-0.1142293046532135</v>
+        <v>-0.1404600733722733</v>
       </c>
     </row>
     <row r="95">
@@ -1200,7 +1200,7 @@
         <v>41730</v>
       </c>
       <c r="B95" t="n">
-        <v>-0.1305662169611587</v>
+        <v>-0.1474420872734024</v>
       </c>
     </row>
     <row r="96">
@@ -1208,7 +1208,7 @@
         <v>41821</v>
       </c>
       <c r="B96" t="n">
-        <v>-0.1236587087592843</v>
+        <v>-0.1417988156845053</v>
       </c>
     </row>
     <row r="97">
@@ -1216,7 +1216,7 @@
         <v>41913</v>
       </c>
       <c r="B97" t="n">
-        <v>-0.1348770802734546</v>
+        <v>-0.1453979978109967</v>
       </c>
     </row>
     <row r="98">
@@ -1224,7 +1224,7 @@
         <v>42005</v>
       </c>
       <c r="B98" t="n">
-        <v>-0.1509356628598843</v>
+        <v>-0.1571358292695456</v>
       </c>
     </row>
     <row r="99">
@@ -1232,7 +1232,7 @@
         <v>42095</v>
       </c>
       <c r="B99" t="n">
-        <v>-0.1141650013513462</v>
+        <v>-0.1342861746134228</v>
       </c>
     </row>
     <row r="100">
@@ -1240,7 +1240,7 @@
         <v>42186</v>
       </c>
       <c r="B100" t="n">
-        <v>-0.1207548949931124</v>
+        <v>-0.1398932991595666</v>
       </c>
     </row>
     <row r="101">
@@ -1248,7 +1248,7 @@
         <v>42278</v>
       </c>
       <c r="B101" t="n">
-        <v>-0.1349511465680343</v>
+        <v>-0.1522167532831668</v>
       </c>
     </row>
     <row r="102">
@@ -1256,7 +1256,7 @@
         <v>42370</v>
       </c>
       <c r="B102" t="n">
-        <v>-0.1212386143196997</v>
+        <v>-0.1486655410483926</v>
       </c>
     </row>
     <row r="103">
@@ -1264,7 +1264,7 @@
         <v>42461</v>
       </c>
       <c r="B103" t="n">
-        <v>-0.1255757415315522</v>
+        <v>-0.1560525566170937</v>
       </c>
     </row>
     <row r="104">
@@ -1272,7 +1272,7 @@
         <v>42552</v>
       </c>
       <c r="B104" t="n">
-        <v>-0.1131812954840672</v>
+        <v>-0.1515795184373446</v>
       </c>
     </row>
     <row r="105">
@@ -1280,7 +1280,7 @@
         <v>42644</v>
       </c>
       <c r="B105" t="n">
-        <v>-0.1098915522375362</v>
+        <v>-0.1379868794699632</v>
       </c>
     </row>
     <row r="106">
@@ -1288,7 +1288,7 @@
         <v>42736</v>
       </c>
       <c r="B106" t="n">
-        <v>-0.1006411700870172</v>
+        <v>-0.1329445565650106</v>
       </c>
     </row>
     <row r="107">
@@ -1296,7 +1296,7 @@
         <v>42826</v>
       </c>
       <c r="B107" t="n">
-        <v>-0.1196296076902342</v>
+        <v>-0.1531032443808075</v>
       </c>
     </row>
     <row r="108">
@@ -1304,7 +1304,7 @@
         <v>42917</v>
       </c>
       <c r="B108" t="n">
-        <v>-0.1057994642379796</v>
+        <v>-0.1430581183482726</v>
       </c>
     </row>
     <row r="109">
@@ -1312,7 +1312,7 @@
         <v>43009</v>
       </c>
       <c r="B109" t="n">
-        <v>-0.1061436944661187</v>
+        <v>-0.1310705649923474</v>
       </c>
     </row>
     <row r="110">
@@ -1320,7 +1320,7 @@
         <v>43101</v>
       </c>
       <c r="B110" t="n">
-        <v>-0.1043376636214302</v>
+        <v>-0.1364591138221079</v>
       </c>
     </row>
     <row r="111">
@@ -1328,7 +1328,7 @@
         <v>43191</v>
       </c>
       <c r="B111" t="n">
-        <v>-0.1052600736665287</v>
+        <v>-0.1227210893932011</v>
       </c>
     </row>
     <row r="112">
@@ -1336,7 +1336,7 @@
         <v>43282</v>
       </c>
       <c r="B112" t="n">
-        <v>-0.1136647203375072</v>
+        <v>-0.140851372497053</v>
       </c>
     </row>
     <row r="113">
@@ -1344,7 +1344,7 @@
         <v>43374</v>
       </c>
       <c r="B113" t="n">
-        <v>-0.1196190456749778</v>
+        <v>-0.1506172875022654</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Regression/news_index_senti_lex_q.xlsx
+++ b/Data/Regression/news_index_senti_lex_q.xlsx
@@ -456,7 +456,7 @@
         <v>33239</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.1534924585808697</v>
+        <v>-0.151313211081806</v>
       </c>
     </row>
     <row r="3">
@@ -464,7 +464,7 @@
         <v>33329</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.1357298757910612</v>
+        <v>-0.1440236323359583</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         <v>33420</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.140145757082721</v>
+        <v>-0.141866212109935</v>
       </c>
     </row>
     <row r="5">
@@ -480,7 +480,7 @@
         <v>33512</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.1402596056160162</v>
+        <v>-0.1452270976487382</v>
       </c>
     </row>
     <row r="6">
@@ -488,7 +488,7 @@
         <v>33604</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.1440740577172349</v>
+        <v>-0.1521305467249488</v>
       </c>
     </row>
     <row r="7">
@@ -496,7 +496,7 @@
         <v>33695</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.1416029776544062</v>
+        <v>-0.1461213060111353</v>
       </c>
     </row>
     <row r="8">
@@ -504,7 +504,7 @@
         <v>33786</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.1462361503596796</v>
+        <v>-0.1495366161578195</v>
       </c>
     </row>
     <row r="9">
@@ -512,7 +512,7 @@
         <v>33878</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.1457702152041511</v>
+        <v>-0.1469783816904471</v>
       </c>
     </row>
     <row r="10">
@@ -520,7 +520,7 @@
         <v>33970</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.141227727192547</v>
+        <v>-0.1462776076700225</v>
       </c>
     </row>
     <row r="11">
@@ -528,7 +528,7 @@
         <v>34060</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.1570218051142842</v>
+        <v>-0.1594086530264871</v>
       </c>
     </row>
     <row r="12">
@@ -536,7 +536,7 @@
         <v>34151</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.1402572833029916</v>
+        <v>-0.1530418647543381</v>
       </c>
     </row>
     <row r="13">
@@ -544,7 +544,7 @@
         <v>34243</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.1475165579831482</v>
+        <v>-0.1533849003651282</v>
       </c>
     </row>
     <row r="14">
@@ -552,7 +552,7 @@
         <v>34335</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.133673565270316</v>
+        <v>-0.1384198092745995</v>
       </c>
     </row>
     <row r="15">
@@ -560,7 +560,7 @@
         <v>34425</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.1397927117436329</v>
+        <v>-0.1423368050840912</v>
       </c>
     </row>
     <row r="16">
@@ -568,7 +568,7 @@
         <v>34516</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.1372520166048013</v>
+        <v>-0.1371309870913549</v>
       </c>
     </row>
     <row r="17">
@@ -576,7 +576,7 @@
         <v>34608</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.1310775235063493</v>
+        <v>-0.1376970366546563</v>
       </c>
     </row>
     <row r="18">
@@ -584,7 +584,7 @@
         <v>34700</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.137894150806412</v>
+        <v>-0.1459207470319699</v>
       </c>
     </row>
     <row r="19">
@@ -592,7 +592,7 @@
         <v>34790</v>
       </c>
       <c r="B19" t="n">
-        <v>-0.1314977898928067</v>
+        <v>-0.138802425906225</v>
       </c>
     </row>
     <row r="20">
@@ -600,7 +600,7 @@
         <v>34881</v>
       </c>
       <c r="B20" t="n">
-        <v>-0.1253431360118642</v>
+        <v>-0.1380227731697813</v>
       </c>
     </row>
     <row r="21">
@@ -608,7 +608,7 @@
         <v>34973</v>
       </c>
       <c r="B21" t="n">
-        <v>-0.138780185774935</v>
+        <v>-0.1485507690142723</v>
       </c>
     </row>
     <row r="22">
@@ -616,7 +616,7 @@
         <v>35065</v>
       </c>
       <c r="B22" t="n">
-        <v>-0.1247973184331817</v>
+        <v>-0.1321874763881036</v>
       </c>
     </row>
     <row r="23">
@@ -624,7 +624,7 @@
         <v>35156</v>
       </c>
       <c r="B23" t="n">
-        <v>-0.1439310306461487</v>
+        <v>-0.1503196962477217</v>
       </c>
     </row>
     <row r="24">
@@ -632,7 +632,7 @@
         <v>35247</v>
       </c>
       <c r="B24" t="n">
-        <v>-0.1319395161460816</v>
+        <v>-0.1421537150118582</v>
       </c>
     </row>
     <row r="25">
@@ -640,7 +640,7 @@
         <v>35339</v>
       </c>
       <c r="B25" t="n">
-        <v>-0.1431903843905059</v>
+        <v>-0.1500317231931626</v>
       </c>
     </row>
     <row r="26">
@@ -648,7 +648,7 @@
         <v>35431</v>
       </c>
       <c r="B26" t="n">
-        <v>-0.1291389766997261</v>
+        <v>-0.1360249514882063</v>
       </c>
     </row>
     <row r="27">
@@ -656,7 +656,7 @@
         <v>35521</v>
       </c>
       <c r="B27" t="n">
-        <v>-0.1333910058188453</v>
+        <v>-0.1447035019037201</v>
       </c>
     </row>
     <row r="28">
@@ -664,7 +664,7 @@
         <v>35612</v>
       </c>
       <c r="B28" t="n">
-        <v>-0.1364773603662673</v>
+        <v>-0.1423591180643898</v>
       </c>
     </row>
     <row r="29">
@@ -672,7 +672,7 @@
         <v>35704</v>
       </c>
       <c r="B29" t="n">
-        <v>-0.1269953124791155</v>
+        <v>-0.1388107940065508</v>
       </c>
     </row>
     <row r="30">
@@ -680,7 +680,7 @@
         <v>35796</v>
       </c>
       <c r="B30" t="n">
-        <v>-0.1402151971133958</v>
+        <v>-0.1503283466286918</v>
       </c>
     </row>
     <row r="31">
@@ -688,7 +688,7 @@
         <v>35886</v>
       </c>
       <c r="B31" t="n">
-        <v>-0.1397209817664092</v>
+        <v>-0.1404636622338683</v>
       </c>
     </row>
     <row r="32">
@@ -696,7 +696,7 @@
         <v>35977</v>
       </c>
       <c r="B32" t="n">
-        <v>-0.1337208293417075</v>
+        <v>-0.1322754732555793</v>
       </c>
     </row>
     <row r="33">
@@ -704,7 +704,7 @@
         <v>36069</v>
       </c>
       <c r="B33" t="n">
-        <v>-0.1363599758519078</v>
+        <v>-0.148103448302896</v>
       </c>
     </row>
     <row r="34">
@@ -712,7 +712,7 @@
         <v>36161</v>
       </c>
       <c r="B34" t="n">
-        <v>-0.1420307781954484</v>
+        <v>-0.1468696795985095</v>
       </c>
     </row>
     <row r="35">
@@ -720,7 +720,7 @@
         <v>36251</v>
       </c>
       <c r="B35" t="n">
-        <v>-0.125378761407607</v>
+        <v>-0.1348551038829119</v>
       </c>
     </row>
     <row r="36">
@@ -728,7 +728,7 @@
         <v>36342</v>
       </c>
       <c r="B36" t="n">
-        <v>-0.123242957162204</v>
+        <v>-0.140237334215293</v>
       </c>
     </row>
     <row r="37">
@@ -736,7 +736,7 @@
         <v>36434</v>
       </c>
       <c r="B37" t="n">
-        <v>-0.1221470675581579</v>
+        <v>-0.1338796641758035</v>
       </c>
     </row>
     <row r="38">
@@ -744,7 +744,7 @@
         <v>36526</v>
       </c>
       <c r="B38" t="n">
-        <v>-0.1237381235252662</v>
+        <v>-0.1265844603746384</v>
       </c>
     </row>
     <row r="39">
@@ -752,7 +752,7 @@
         <v>36617</v>
       </c>
       <c r="B39" t="n">
-        <v>-0.1307411573873652</v>
+        <v>-0.1381839902229351</v>
       </c>
     </row>
     <row r="40">
@@ -760,7 +760,7 @@
         <v>36708</v>
       </c>
       <c r="B40" t="n">
-        <v>-0.1280142670982445</v>
+        <v>-0.1397307067901837</v>
       </c>
     </row>
     <row r="41">
@@ -768,7 +768,7 @@
         <v>36800</v>
       </c>
       <c r="B41" t="n">
-        <v>-0.1256542724621025</v>
+        <v>-0.1375574780146324</v>
       </c>
     </row>
     <row r="42">
@@ -776,7 +776,7 @@
         <v>36892</v>
       </c>
       <c r="B42" t="n">
-        <v>-0.1520504765157774</v>
+        <v>-0.1504035674359556</v>
       </c>
     </row>
     <row r="43">
@@ -784,7 +784,7 @@
         <v>36982</v>
       </c>
       <c r="B43" t="n">
-        <v>-0.1247337060519404</v>
+        <v>-0.133582172181291</v>
       </c>
     </row>
     <row r="44">
@@ -792,7 +792,7 @@
         <v>37073</v>
       </c>
       <c r="B44" t="n">
-        <v>-0.1327738459480355</v>
+        <v>-0.1363365385283081</v>
       </c>
     </row>
     <row r="45">
@@ -800,7 +800,7 @@
         <v>37165</v>
       </c>
       <c r="B45" t="n">
-        <v>-0.1328705018143704</v>
+        <v>-0.138228482699266</v>
       </c>
     </row>
     <row r="46">
@@ -808,7 +808,7 @@
         <v>37257</v>
       </c>
       <c r="B46" t="n">
-        <v>-0.1260668063683586</v>
+        <v>-0.1325863660225684</v>
       </c>
     </row>
     <row r="47">
@@ -816,7 +816,7 @@
         <v>37347</v>
       </c>
       <c r="B47" t="n">
-        <v>-0.1240455665918242</v>
+        <v>-0.1318013019657443</v>
       </c>
     </row>
     <row r="48">
@@ -824,7 +824,7 @@
         <v>37438</v>
       </c>
       <c r="B48" t="n">
-        <v>-0.1175797756923278</v>
+        <v>-0.1272200052975298</v>
       </c>
     </row>
     <row r="49">
@@ -832,7 +832,7 @@
         <v>37530</v>
       </c>
       <c r="B49" t="n">
-        <v>-0.1301584042170622</v>
+        <v>-0.141095729035565</v>
       </c>
     </row>
     <row r="50">
@@ -840,7 +840,7 @@
         <v>37622</v>
       </c>
       <c r="B50" t="n">
-        <v>-0.1391546149010723</v>
+        <v>-0.1388284167700224</v>
       </c>
     </row>
     <row r="51">
@@ -848,7 +848,7 @@
         <v>37712</v>
       </c>
       <c r="B51" t="n">
-        <v>-0.1517706259365739</v>
+        <v>-0.1519157894383564</v>
       </c>
     </row>
     <row r="52">
@@ -856,7 +856,7 @@
         <v>37803</v>
       </c>
       <c r="B52" t="n">
-        <v>-0.1445442214905037</v>
+        <v>-0.1496890297866491</v>
       </c>
     </row>
     <row r="53">
@@ -864,7 +864,7 @@
         <v>37895</v>
       </c>
       <c r="B53" t="n">
-        <v>-0.1392876037804175</v>
+        <v>-0.1490142381543807</v>
       </c>
     </row>
     <row r="54">
@@ -872,7 +872,7 @@
         <v>37987</v>
       </c>
       <c r="B54" t="n">
-        <v>-0.1305003078515587</v>
+        <v>-0.1497945116370019</v>
       </c>
     </row>
     <row r="55">
@@ -880,7 +880,7 @@
         <v>38078</v>
       </c>
       <c r="B55" t="n">
-        <v>-0.147782523570266</v>
+        <v>-0.1542971640584787</v>
       </c>
     </row>
     <row r="56">
@@ -888,7 +888,7 @@
         <v>38169</v>
       </c>
       <c r="B56" t="n">
-        <v>-0.1413544794816261</v>
+        <v>-0.1440375389324321</v>
       </c>
     </row>
     <row r="57">
@@ -896,7 +896,7 @@
         <v>38261</v>
       </c>
       <c r="B57" t="n">
-        <v>-0.1445884542898249</v>
+        <v>-0.146140541081472</v>
       </c>
     </row>
     <row r="58">
@@ -904,7 +904,7 @@
         <v>38353</v>
       </c>
       <c r="B58" t="n">
-        <v>-0.1410565128898982</v>
+        <v>-0.1451236302718528</v>
       </c>
     </row>
     <row r="59">
@@ -912,7 +912,7 @@
         <v>38443</v>
       </c>
       <c r="B59" t="n">
-        <v>-0.1334397499021595</v>
+        <v>-0.1475309483094082</v>
       </c>
     </row>
     <row r="60">
@@ -920,7 +920,7 @@
         <v>38534</v>
       </c>
       <c r="B60" t="n">
-        <v>-0.127467427333382</v>
+        <v>-0.1336700052705988</v>
       </c>
     </row>
     <row r="61">
@@ -928,7 +928,7 @@
         <v>38626</v>
       </c>
       <c r="B61" t="n">
-        <v>-0.1409430806084989</v>
+        <v>-0.1498634602450688</v>
       </c>
     </row>
     <row r="62">
@@ -936,7 +936,7 @@
         <v>38718</v>
       </c>
       <c r="B62" t="n">
-        <v>-0.1347382029652613</v>
+        <v>-0.14240996367538</v>
       </c>
     </row>
     <row r="63">
@@ -944,7 +944,7 @@
         <v>38808</v>
       </c>
       <c r="B63" t="n">
-        <v>-0.1474989209631965</v>
+        <v>-0.1487135803156933</v>
       </c>
     </row>
     <row r="64">
@@ -952,7 +952,7 @@
         <v>38899</v>
       </c>
       <c r="B64" t="n">
-        <v>-0.1386585027942994</v>
+        <v>-0.145316262721727</v>
       </c>
     </row>
     <row r="65">
@@ -960,7 +960,7 @@
         <v>38991</v>
       </c>
       <c r="B65" t="n">
-        <v>-0.1500678061758363</v>
+        <v>-0.1523917365394433</v>
       </c>
     </row>
     <row r="66">
@@ -968,7 +968,7 @@
         <v>39083</v>
       </c>
       <c r="B66" t="n">
-        <v>-0.1311989156929524</v>
+        <v>-0.1389881433344991</v>
       </c>
     </row>
     <row r="67">
@@ -976,7 +976,7 @@
         <v>39173</v>
       </c>
       <c r="B67" t="n">
-        <v>-0.146616874260868</v>
+        <v>-0.1540585457332905</v>
       </c>
     </row>
     <row r="68">
@@ -984,7 +984,7 @@
         <v>39264</v>
       </c>
       <c r="B68" t="n">
-        <v>-0.1444936012105033</v>
+        <v>-0.1473353527031232</v>
       </c>
     </row>
     <row r="69">
@@ -992,7 +992,7 @@
         <v>39356</v>
       </c>
       <c r="B69" t="n">
-        <v>-0.1446304851282281</v>
+        <v>-0.1562952374818142</v>
       </c>
     </row>
     <row r="70">
@@ -1000,7 +1000,7 @@
         <v>39448</v>
       </c>
       <c r="B70" t="n">
-        <v>-0.1525447533470215</v>
+        <v>-0.16483572541258</v>
       </c>
     </row>
     <row r="71">
@@ -1008,7 +1008,7 @@
         <v>39539</v>
       </c>
       <c r="B71" t="n">
-        <v>-0.1481511702467859</v>
+        <v>-0.156839185510374</v>
       </c>
     </row>
     <row r="72">
@@ -1016,7 +1016,7 @@
         <v>39630</v>
       </c>
       <c r="B72" t="n">
-        <v>-0.1557256119479111</v>
+        <v>-0.1597984446326583</v>
       </c>
     </row>
     <row r="73">
@@ -1024,7 +1024,7 @@
         <v>39722</v>
       </c>
       <c r="B73" t="n">
-        <v>-0.1437134708036366</v>
+        <v>-0.1536977253041826</v>
       </c>
     </row>
     <row r="74">
@@ -1032,7 +1032,7 @@
         <v>39814</v>
       </c>
       <c r="B74" t="n">
-        <v>-0.1326148529671805</v>
+        <v>-0.149092776127905</v>
       </c>
     </row>
     <row r="75">
@@ -1040,7 +1040,7 @@
         <v>39904</v>
       </c>
       <c r="B75" t="n">
-        <v>-0.1399791186216012</v>
+        <v>-0.1431448621275326</v>
       </c>
     </row>
     <row r="76">
@@ -1048,7 +1048,7 @@
         <v>39995</v>
       </c>
       <c r="B76" t="n">
-        <v>-0.1406888616364504</v>
+        <v>-0.1417934290405237</v>
       </c>
     </row>
     <row r="77">
@@ -1056,7 +1056,7 @@
         <v>40087</v>
       </c>
       <c r="B77" t="n">
-        <v>-0.1534987912091829</v>
+        <v>-0.1540227107867774</v>
       </c>
     </row>
     <row r="78">
@@ -1064,7 +1064,7 @@
         <v>40179</v>
       </c>
       <c r="B78" t="n">
-        <v>-0.1659187791528303</v>
+        <v>-0.1669162265883057</v>
       </c>
     </row>
     <row r="79">
@@ -1072,7 +1072,7 @@
         <v>40269</v>
       </c>
       <c r="B79" t="n">
-        <v>-0.1638912973465088</v>
+        <v>-0.1683172274365538</v>
       </c>
     </row>
     <row r="80">
@@ -1080,7 +1080,7 @@
         <v>40360</v>
       </c>
       <c r="B80" t="n">
-        <v>-0.1566870005540464</v>
+        <v>-0.159966959471883</v>
       </c>
     </row>
     <row r="81">
@@ -1088,7 +1088,7 @@
         <v>40452</v>
       </c>
       <c r="B81" t="n">
-        <v>-0.1435482697112134</v>
+        <v>-0.1497730713248076</v>
       </c>
     </row>
     <row r="82">
@@ -1096,7 +1096,7 @@
         <v>40544</v>
       </c>
       <c r="B82" t="n">
-        <v>-0.1460839210507728</v>
+        <v>-0.1532236209818592</v>
       </c>
     </row>
     <row r="83">
@@ -1104,7 +1104,7 @@
         <v>40634</v>
       </c>
       <c r="B83" t="n">
-        <v>-0.1500928988129352</v>
+        <v>-0.1605384836843643</v>
       </c>
     </row>
     <row r="84">
@@ -1112,7 +1112,7 @@
         <v>40725</v>
       </c>
       <c r="B84" t="n">
-        <v>-0.1479234976756752</v>
+        <v>-0.1599643357386706</v>
       </c>
     </row>
     <row r="85">
@@ -1120,7 +1120,7 @@
         <v>40817</v>
       </c>
       <c r="B85" t="n">
-        <v>-0.1337073226996419</v>
+        <v>-0.1346092564301138</v>
       </c>
     </row>
     <row r="86">
@@ -1128,7 +1128,7 @@
         <v>40909</v>
       </c>
       <c r="B86" t="n">
-        <v>-0.138155946051722</v>
+        <v>-0.1381287430735843</v>
       </c>
     </row>
     <row r="87">
@@ -1136,7 +1136,7 @@
         <v>41000</v>
       </c>
       <c r="B87" t="n">
-        <v>-0.1467360310442286</v>
+        <v>-0.1485017483444813</v>
       </c>
     </row>
     <row r="88">
@@ -1144,7 +1144,7 @@
         <v>41091</v>
       </c>
       <c r="B88" t="n">
-        <v>-0.1453998014514609</v>
+        <v>-0.1504511527898414</v>
       </c>
     </row>
     <row r="89">
@@ -1152,7 +1152,7 @@
         <v>41183</v>
       </c>
       <c r="B89" t="n">
-        <v>-0.140030173662084</v>
+        <v>-0.1462181133044574</v>
       </c>
     </row>
     <row r="90">
@@ -1160,7 +1160,7 @@
         <v>41275</v>
       </c>
       <c r="B90" t="n">
-        <v>-0.1516147931026041</v>
+        <v>-0.1548257298395978</v>
       </c>
     </row>
     <row r="91">
@@ -1168,7 +1168,7 @@
         <v>41365</v>
       </c>
       <c r="B91" t="n">
-        <v>-0.1517485361057351</v>
+        <v>-0.1616073235643956</v>
       </c>
     </row>
     <row r="92">
@@ -1176,7 +1176,7 @@
         <v>41456</v>
       </c>
       <c r="B92" t="n">
-        <v>-0.1439565080717538</v>
+        <v>-0.1513260529142459</v>
       </c>
     </row>
     <row r="93">
@@ -1184,7 +1184,7 @@
         <v>41548</v>
       </c>
       <c r="B93" t="n">
-        <v>-0.129487795738757</v>
+        <v>-0.1323870421957049</v>
       </c>
     </row>
     <row r="94">
@@ -1192,7 +1192,7 @@
         <v>41640</v>
       </c>
       <c r="B94" t="n">
-        <v>-0.1404600733722733</v>
+        <v>-0.1432636612840042</v>
       </c>
     </row>
     <row r="95">
@@ -1200,7 +1200,7 @@
         <v>41730</v>
       </c>
       <c r="B95" t="n">
-        <v>-0.1474420872734024</v>
+        <v>-0.1441064278167498</v>
       </c>
     </row>
     <row r="96">
@@ -1208,7 +1208,7 @@
         <v>41821</v>
       </c>
       <c r="B96" t="n">
-        <v>-0.1417988156845053</v>
+        <v>-0.1433284256101788</v>
       </c>
     </row>
     <row r="97">
@@ -1216,7 +1216,7 @@
         <v>41913</v>
       </c>
       <c r="B97" t="n">
-        <v>-0.1453979978109967</v>
+        <v>-0.1464069701136886</v>
       </c>
     </row>
     <row r="98">
@@ -1224,7 +1224,7 @@
         <v>42005</v>
       </c>
       <c r="B98" t="n">
-        <v>-0.1571358292695456</v>
+        <v>-0.1599863560619802</v>
       </c>
     </row>
     <row r="99">
@@ -1232,7 +1232,7 @@
         <v>42095</v>
       </c>
       <c r="B99" t="n">
-        <v>-0.1342861746134228</v>
+        <v>-0.1280595080833173</v>
       </c>
     </row>
     <row r="100">
@@ -1240,7 +1240,7 @@
         <v>42186</v>
       </c>
       <c r="B100" t="n">
-        <v>-0.1398932991595666</v>
+        <v>-0.1422571177977917</v>
       </c>
     </row>
     <row r="101">
@@ -1248,7 +1248,7 @@
         <v>42278</v>
       </c>
       <c r="B101" t="n">
-        <v>-0.1522167532831668</v>
+        <v>-0.1536619215496658</v>
       </c>
     </row>
     <row r="102">
@@ -1256,7 +1256,7 @@
         <v>42370</v>
       </c>
       <c r="B102" t="n">
-        <v>-0.1486655410483926</v>
+        <v>-0.1453809122576215</v>
       </c>
     </row>
     <row r="103">
@@ -1264,7 +1264,7 @@
         <v>42461</v>
       </c>
       <c r="B103" t="n">
-        <v>-0.1560525566170937</v>
+        <v>-0.1574519253382397</v>
       </c>
     </row>
     <row r="104">
@@ -1272,7 +1272,7 @@
         <v>42552</v>
       </c>
       <c r="B104" t="n">
-        <v>-0.1515795184373446</v>
+        <v>-0.1506650130680169</v>
       </c>
     </row>
     <row r="105">
@@ -1280,7 +1280,7 @@
         <v>42644</v>
       </c>
       <c r="B105" t="n">
-        <v>-0.1379868794699632</v>
+        <v>-0.1425554845767329</v>
       </c>
     </row>
     <row r="106">
@@ -1288,7 +1288,7 @@
         <v>42736</v>
       </c>
       <c r="B106" t="n">
-        <v>-0.1329445565650106</v>
+        <v>-0.1370930908175721</v>
       </c>
     </row>
     <row r="107">
@@ -1296,7 +1296,7 @@
         <v>42826</v>
       </c>
       <c r="B107" t="n">
-        <v>-0.1531032443808075</v>
+        <v>-0.1538215463043471</v>
       </c>
     </row>
     <row r="108">
@@ -1304,7 +1304,7 @@
         <v>42917</v>
       </c>
       <c r="B108" t="n">
-        <v>-0.1430581183482726</v>
+        <v>-0.1455829855000066</v>
       </c>
     </row>
     <row r="109">
@@ -1312,7 +1312,7 @@
         <v>43009</v>
       </c>
       <c r="B109" t="n">
-        <v>-0.1310705649923474</v>
+        <v>-0.1356468418446528</v>
       </c>
     </row>
     <row r="110">
@@ -1320,7 +1320,7 @@
         <v>43101</v>
       </c>
       <c r="B110" t="n">
-        <v>-0.1364591138221079</v>
+        <v>-0.145956800883567</v>
       </c>
     </row>
     <row r="111">
@@ -1328,7 +1328,7 @@
         <v>43191</v>
       </c>
       <c r="B111" t="n">
-        <v>-0.1227210893932011</v>
+        <v>-0.1306245034925287</v>
       </c>
     </row>
     <row r="112">
@@ -1336,7 +1336,7 @@
         <v>43282</v>
       </c>
       <c r="B112" t="n">
-        <v>-0.140851372497053</v>
+        <v>-0.1456676848556694</v>
       </c>
     </row>
     <row r="113">
@@ -1344,7 +1344,7 @@
         <v>43374</v>
       </c>
       <c r="B113" t="n">
-        <v>-0.1506172875022654</v>
+        <v>-0.1591146383668545</v>
       </c>
     </row>
   </sheetData>
